--- a/verydows电商系统测试/接口测试/接口测试.xlsx
+++ b/verydows电商系统测试/接口测试/接口测试.xlsx
@@ -16,23 +16,26 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="40">
   <si>
     <t>用例名称</t>
   </si>
   <si>
-    <t>中文翻译成为英文</t>
+    <t>登录模块</t>
   </si>
   <si>
     <t>接口地址</t>
   </si>
   <si>
-    <t>http://api.fanyi.baidu.com/api/trans/vip/translate</t>
+    <t>http://localhost:8000/verydows-master/index.php?c=user&amp;a=login&amp;step=submit</t>
   </si>
   <si>
     <t>前置条件</t>
   </si>
   <si>
+    <t>用户已注册</t>
+  </si>
+  <si>
     <t>请求方式</t>
   </si>
   <si>
@@ -54,38 +57,91 @@
     <t>返回结果</t>
   </si>
   <si>
-    <t>翻译正常</t>
+    <t>登录正常</t>
   </si>
   <si>
     <t xml:space="preserve">Content-Type: application/x-www-form-urlencoded
 </t>
   </si>
   <si>
-    <t>?q=%E6%B8%B8%E6%88%8F&amp;from=zh&amp;to=en&amp;appid=20220824001318359&amp;salt=1435660288&amp;sign=3d417631392a5e5adca4e84fa7aa3d3f</t>
-  </si>
-  <si>
-    <t>{
-    "from": "zh",
-    "to": "en",
-    "trans_result": [
-        {
-            "src": "游戏",
-            "dst": "game"
-        }
-    ]
-}</t>
-  </si>
-  <si>
-    <t>参数错误</t>
-  </si>
-  <si>
-    <t>?q=%E6%B8%B8%E6%88%8F&amp;from=z&amp;to=en&amp;appid=20220824001318359&amp;salt=1435660288&amp;sign=3d417631392a5e5adca4e84fa7aa3d3f</t>
-  </si>
-  <si>
-    <t>{
-    "error_code": "58001",
-    "error_msg": "INVALID_TO_PARAM"
-}</t>
+    <t>username：liwenda
+password：200c6d94e583e62c6964de3acdc723e5</t>
+  </si>
+  <si>
+    <t>用户网页登录的出现</t>
+  </si>
+  <si>
+    <t>密码错误</t>
+  </si>
+  <si>
+    <t>username：liwenda
+password：200c6d94e583e62c6964de3acdc723e6</t>
+  </si>
+  <si>
+    <t>用户名或密码错误提示页面</t>
+  </si>
+  <si>
+    <t>账号错误</t>
+  </si>
+  <si>
+    <t>username：liwend
+password：200c6d94e583e62c6964de3acdc723e5</t>
+  </si>
+  <si>
+    <t>购物车模块</t>
+  </si>
+  <si>
+    <t>http://localhost:8000/verydows-master/index.php?m=api&amp;c=cart&amp;a=list</t>
+  </si>
+  <si>
+    <t>用户已登录</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>购物车接口获取正常</t>
+  </si>
+  <si>
+    <t>Content-Type: application/x-www-form-urlencoded
+Cookie：Pycharm-a30d9a5f=98acb46d-2769-4fd9-972a-f40c238bf060; FOOTPRINT=1%2C3; VDSSKEY=jq4dpo9esu0jktl10ul2g5fofl; LOGINED_USER=liwenda; CARTS=%7B%221%22%3A%7B%22id%22%3A%221%22%2C%22qty%22%3A%221%22%2C%22opts%22%3A%5B%5D%7D%2C%223%22%3A%7B%22id%22%3A%223%22%2C%22qty%22%3A%222%22%2C%22opts%22%3A%5B%5D%7D%7D</t>
+  </si>
+  <si>
+    <t>{"status":"success","cart":{"items":{"1":{"goods_id":"1","goods_name":"Apple\/\u82f9\u679c iPhone
+13","now_price":"1888.00","goods_image":"376307649ca238c.jpg","goods_weight":"0.00","stock_qty":"9999","opts":null,"qty":"1","subtotal":"1888.00","json":"{\"id\":\"1\",\"qty\":\"1\",\"opts\":[]}"}},"weight":0,"qty":1,"amount":"1888.00","kinds":1}}</t>
+  </si>
+  <si>
+    <t>购物车接口获取不正常</t>
+  </si>
+  <si>
+    <t>{"status":"nodata"}</t>
+  </si>
+  <si>
+    <t>搜索模块</t>
+  </si>
+  <si>
+    <t>http://localhost:8000/verydows-master/index.php?c=search&amp;a=index</t>
+  </si>
+  <si>
+    <t>搜索正常</t>
+  </si>
+  <si>
+    <t>kw: 手机</t>
+  </si>
+  <si>
+    <t>刷新到搜索的界面（kw=手机）</t>
+  </si>
+  <si>
+    <t>搜索不存在</t>
+  </si>
+  <si>
+    <t>Content-Type: application/x-www-form-urlencoded</t>
+  </si>
+  <si>
+    <t>kw: 苹果</t>
+  </si>
+  <si>
+    <t>提示：非常抱歉，未能为您找到与 "手机" 相关的商品!</t>
   </si>
 </sst>
 </file>
@@ -722,7 +778,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -740,6 +796,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1092,17 +1151,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="18.6666666666667" customWidth="1"/>
     <col min="2" max="2" width="35.2222222222222" customWidth="1"/>
-    <col min="3" max="3" width="17.5555555555556" customWidth="1"/>
+    <col min="3" max="3" width="45.1111111111111" customWidth="1"/>
     <col min="4" max="4" width="20.7777777777778" customWidth="1"/>
     <col min="5" max="5" width="46.8888888888889" customWidth="1"/>
     <col min="6" max="6" width="35.6666666666667" customWidth="1"/>
@@ -1138,7 +1197,9 @@
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -1147,10 +1208,10 @@
     </row>
     <row r="4" ht="69" customHeight="1" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -1160,66 +1221,297 @@
     </row>
     <row r="5" ht="55" customHeight="1" spans="1:7">
       <c r="A5" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" ht="128" customHeight="1" spans="1:5">
+    <row r="6" ht="91" customHeight="1" spans="1:5">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6">
         <v>200</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" ht="57.6" spans="1:5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" ht="43.2" spans="1:5">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="D7">
         <v>200</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" ht="43.2" spans="1:5">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8">
+        <v>200</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" ht="62" customHeight="1" spans="1:7">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" ht="44" customHeight="1" spans="1:7">
+      <c r="A12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" ht="34" customHeight="1" spans="1:7">
+      <c r="A13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" ht="64" customHeight="1" spans="1:7">
+      <c r="A14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" ht="187.2" spans="1:5">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16">
+        <v>200</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" ht="43.2" spans="1:5">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17">
+        <v>200</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" ht="49" customHeight="1" spans="1:7">
+      <c r="A19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" ht="50" customHeight="1" spans="1:7">
+      <c r="A20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" ht="27" customHeight="1" spans="1:7">
+      <c r="A21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" ht="50" customHeight="1" spans="1:7">
+      <c r="A22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="4"/>
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" ht="43.2" spans="1:5">
+      <c r="A24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24">
+        <v>200</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25">
+        <v>200</v>
+      </c>
+      <c r="E25" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="12">
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B22:G22"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="http://api.fanyi.baidu.com/api/trans/vip/translate" tooltip="http://api.fanyi.baidu.com/api/trans/vip/translate"/>
+    <hyperlink ref="B2" r:id="rId1" display="http://localhost:8000/verydows-master/index.php?c=user&amp;a=login&amp;step=submit" tooltip="http://localhost:8000/verydows-master/index.php?c=user&amp;a=login&amp;step=submit"/>
+    <hyperlink ref="B12" r:id="rId2" display="http://localhost:8000/verydows-master/index.php?m=api&amp;c=cart&amp;a=list" tooltip="http://localhost:8000/verydows-master/index.php?m=api&amp;c=cart&amp;a=list"/>
+    <hyperlink ref="B20" r:id="rId3" display="http://localhost:8000/verydows-master/index.php?c=search&amp;a=index" tooltip="http://localhost:8000/verydows-master/index.php?c=search&amp;a=index"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
